--- a/summary_table.xlsx
+++ b/summary_table.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -693,6 +693,109 @@
         </is>
       </c>
     </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>parent_college</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  Mean (SD)</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>0.764 (0.0594)</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>0.717 (0.318)</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.632 (0.330)</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>0.623 (0.250)</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.663 (0.243)</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  Median [Min, Max]</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>0.742 [0.722, 0.852]</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>0.897 [0.350, 0.905]</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.609 [0.310, 1.00]</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>0.600 [0.231, 1.00]</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.711 [0.231, 1.00]</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  Missing</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>3 (42.9%)</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>4 (57.1%)</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2 (33.3%)</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>1 (8.3%)</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>10 (31.3%)</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
